--- a/medicine/Enfance/Michel_Noël_(écrivain)/Michel_Noël_(écrivain).xlsx
+++ b/medicine/Enfance/Michel_Noël_(écrivain)/Michel_Noël_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel_No%C3%ABl_(%C3%A9crivain)</t>
+          <t>Michel_Noël_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Noël, né le 17 août 1944 à Messines, dans l'Outaouais, et mort à Saint-Damien le 12 avril 2021, est un romancier, conteur, poète et dramaturge québécois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Noël, né le 17 août 1944 à Messines, dans l'Outaouais, et mort à Saint-Damien le 12 avril 2021, est un romancier, conteur, poète et dramaturge québécois.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michel_No%C3%ABl_(%C3%A9crivain)</t>
+          <t>Michel_Noël_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +525,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Né d'un père et d'une mère d'origine algonquine et élevé pauvrement sur de vastes territoires près des communautés autochtones, Michel Noël est témoin des activités quotidiennes et saisonnières de ces communautés, de leurs drames, de leur spiritualité, et tout cela nourrit son imaginaire et ses aspirations.
-Études
-Il commence ses études à Mont-Laurier où il obtient son brevet A d' enseignant à l'école normale de Hull en 1967.
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né d'un père et d'une mère d'origine algonquine et élevé pauvrement sur de vastes territoires près des communautés autochtones, Michel Noël est témoin des activités quotidiennes et saisonnières de ces communautés, de leurs drames, de leur spiritualité, et tout cela nourrit son imaginaire et ses aspirations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michel_Noël_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_No%C3%ABl_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence ses études à Mont-Laurier où il obtient son brevet A d' enseignant à l'école normale de Hull en 1967.
 Il obtient une Licence en lettres avec majeure en ethnologie à l'Université Laval en 1970, puis une Maîtrise ès arts à l'Université Laval de Québec en 1973.
 Il fait ensuite sa thèse sur l'art décoratif et vestimentaire des Amérindiens aux XVIe et XVIIe siècles.
 Il complète sa scolarité de doctorat avec une thèse sur la gastronomie amérindienne, thèse qui n'a jamais été soutenue à défaut de professeur spécialisé dans le domaine.
 Il réalise de nombreuses enquêtes folkloriques dans plusieurs régions du Québec.
 Dès ses années d'études, Michel Noël se démarque en étant le premier de sa génération à introduire le patrimoine tangible et intangible des Amérindiens et des Inuits dans l'enseignement en ethnologie.
-Vie professionnelle
-Tout au long de sa carrière professionnelle dans la fonction publique, il se distingue par des propositions innovatrices qui favorisent le développement de l'art et de l'artisanat des peuples autochtones. La plupart de ces propositions ont donné lieu à des réalisations[Lesquelles ?] significatives, uniques et durables auxquelles il aura aussi largement contribué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Noël_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_No%C3%ABl_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie professionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout au long de sa carrière professionnelle dans la fonction publique, il se distingue par des propositions innovatrices qui favorisent le développement de l'art et de l'artisanat des peuples autochtones. La plupart de ces propositions ont donné lieu à des réalisations[Lesquelles ?] significatives, uniques et durables auxquelles il aura aussi largement contribué.
 Par sa production littéraire, ses rencontres avec les jeunes et les communautés autochtones, sa participation à des événements internationaux, Michel Noël a transmis l'amour de l'histoire, la fierté du patrimoine et des traditions. Il a joué et joue encore un rôle primordial dans la vie culturelle québécoise, amérindienne et inuite. Il est reconnu, tant au Québec qu’à l'étranger, comme un homme ayant consacré sa vie personnelle et professionnelle à promouvoir avec succès la richesse des patrimoines québécois, amérindien et inuit. Il a créé des passerelles entre ces peuples et les a amenés à mieux se connaître, à se comprendre, à se respecter et à mieux vivre en harmonie.
 Son travail de sensibilisation a été constant  auprès de plusieurs ministres, sous-ministres et personnalités du Québec et d'ailleurs, artistes, professeurs, bibliothécaires, notamment lors de tournées qu'il organise avec eux dans les communautés autochtones et  il a combattu l'ignorance et influencé les perceptions dans une perspective d'ouverture et de respect mutuels.
 Hervé Foulon, de la maison d'édition Hurtubise, le décrit comme un pionnier en matière de littérature jeunesse au Québec. Au début des années 1980, il a écrit la célèbre série de contes amérindiens intitulée Les Papinachois, illustrés par Joanne Ouellet, qui a reçu le premier prix du Conseil des Arts du Canada pour la qualité de ses illustrations. Ces albums se sont vendus à des dizaines de milliers d'exemplaires. Il a aussi reçu le Prix du Gouverneur général du Canada, dans la catégorie " littérature de jeunesse, texte " , en 1997, pour son roman Pien.
@@ -533,37 +620,74 @@
 Il travaille au Ministère de la Culture du Québec à partir de 1976, où il est responsable du développement des métiers d'art. Il travaille en étroite collaboration avec la création des Corporations régionales d'artisans et métiers d'art et à la consolidation des Salons des métiers d'art de Québec et Montréal. Il est le premier coordonnateur des questions amérindiennes et inuites. Il contribue à la création de la région du Nord-du-Québec et en est le premier directeur. Il signe un protocole avec les Inuits et crée l'Institut culturel Avataq. Il crée également un programme en archéologie préhistorique.
 Il est l'auteur de plus de 90 œuvres littéraires (albums pour les jeunes, romans, poésie, théâtre, livres d'art, guides touristiques, monographies, scénarios).
 Il est conférencier international, conteur, chroniqueur, participant à de nombreux salons du livre internationaux, animateur dans les classes de l'enseignement primaire et du secondaire.
-Décès
-Michel Noël est mort à Saint-Damien le 12 avril 2021 à l'âge de 76 ans[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Michel_No%C3%ABl_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Noël_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_No%C3%ABl_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Noël est mort à Saint-Damien le 12 avril 2021 à l'âge de 76 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Noël_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_No%C3%ABl_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Principales réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ses principaux travaux et réalisations ont été les suivants :
 Rapatriement de la collection de photos de l'entreprise française Revillon Frères et dépôt à l'institut culturel Avataq.
